--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N2">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O2">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P2">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q2">
-        <v>375.7931769145077</v>
+        <v>85.44599999083155</v>
       </c>
       <c r="R2">
-        <v>3382.138592230569</v>
+        <v>769.0139999174839</v>
       </c>
       <c r="S2">
-        <v>0.006303925134354305</v>
+        <v>0.0009181680885726009</v>
       </c>
       <c r="T2">
-        <v>0.006303925134354306</v>
+        <v>0.0009181680885726009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P3">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q3">
-        <v>890.1365009035708</v>
+        <v>157.259581342333</v>
       </c>
       <c r="R3">
-        <v>8011.228508132138</v>
+        <v>1415.336232080997</v>
       </c>
       <c r="S3">
-        <v>0.01493202699188119</v>
+        <v>0.001689847731038441</v>
       </c>
       <c r="T3">
-        <v>0.0149320269918812</v>
+        <v>0.001689847731038441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N4">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P4">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q4">
-        <v>830.2926937732576</v>
+        <v>133.4949533021777</v>
       </c>
       <c r="R4">
-        <v>7472.634243959319</v>
+        <v>1201.454579719599</v>
       </c>
       <c r="S4">
-        <v>0.01392814798853767</v>
+        <v>0.001434482668828279</v>
       </c>
       <c r="T4">
-        <v>0.01392814798853767</v>
+        <v>0.001434482668828278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N5">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O5">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P5">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q5">
-        <v>1907.216002754126</v>
+        <v>178.9861969439088</v>
       </c>
       <c r="R5">
-        <v>17164.94402478714</v>
+        <v>1610.875772495179</v>
       </c>
       <c r="S5">
-        <v>0.03199352099769413</v>
+        <v>0.001923313137496216</v>
       </c>
       <c r="T5">
-        <v>0.03199352099769413</v>
+        <v>0.001923313137496215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N6">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O6">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P6">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q6">
-        <v>101.4724368947427</v>
+        <v>130.5961672318986</v>
       </c>
       <c r="R6">
-        <v>913.2519320526841</v>
+        <v>1175.365505087088</v>
       </c>
       <c r="S6">
-        <v>0.001702198668525784</v>
+        <v>0.001403333488461561</v>
       </c>
       <c r="T6">
-        <v>0.001702198668525784</v>
+        <v>0.001403333488461561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P7">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q7">
         <v>240.3564659083559</v>
@@ -883,10 +883,10 @@
         <v>2163.208193175204</v>
       </c>
       <c r="S7">
-        <v>0.00403197625642086</v>
+        <v>0.00258277317724435</v>
       </c>
       <c r="T7">
-        <v>0.004031976256420861</v>
+        <v>0.00258277317724435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N8">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P8">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q8">
-        <v>224.1973195597427</v>
+        <v>204.034469114252</v>
       </c>
       <c r="R8">
-        <v>2017.775876037684</v>
+        <v>1836.310222028268</v>
       </c>
       <c r="S8">
-        <v>0.003760906808984066</v>
+        <v>0.002192471719327525</v>
       </c>
       <c r="T8">
-        <v>0.003760906808984066</v>
+        <v>0.002192471719327525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N9">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O9">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P9">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q9">
-        <v>514.9903387632265</v>
+        <v>273.5635525454254</v>
       </c>
       <c r="R9">
-        <v>4634.91304886904</v>
+        <v>2462.071972908828</v>
       </c>
       <c r="S9">
-        <v>0.008638955521051693</v>
+        <v>0.002939603072943322</v>
       </c>
       <c r="T9">
-        <v>0.008638955521051695</v>
+        <v>0.002939603072943321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N10">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O10">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P10">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q10">
-        <v>56.4240912812169</v>
+        <v>91.36334313599198</v>
       </c>
       <c r="R10">
-        <v>507.8168215309521</v>
+        <v>822.2700882239278</v>
       </c>
       <c r="S10">
-        <v>0.0009465133191912221</v>
+        <v>0.0009817534599838211</v>
       </c>
       <c r="T10">
-        <v>0.0009465133191912221</v>
+        <v>0.0009817534599838211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P11">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q11">
-        <v>133.651024726168</v>
+        <v>168.150189513186</v>
       </c>
       <c r="R11">
-        <v>1202.859222535512</v>
+        <v>1513.351705618674</v>
       </c>
       <c r="S11">
-        <v>0.002241994016286177</v>
+        <v>0.001806873792980465</v>
       </c>
       <c r="T11">
-        <v>0.002241994016286177</v>
+        <v>0.001806873792980465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N12">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P12">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q12">
-        <v>124.6656768178836</v>
+        <v>142.739803229862</v>
       </c>
       <c r="R12">
-        <v>1121.991091360952</v>
+        <v>1284.658229068758</v>
       </c>
       <c r="S12">
-        <v>0.002091264934441144</v>
+        <v>0.001533824079639238</v>
       </c>
       <c r="T12">
-        <v>0.002091264934441144</v>
+        <v>0.001533824079639238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N13">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O13">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P13">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q13">
-        <v>286.3621173645689</v>
+        <v>191.381426043902</v>
       </c>
       <c r="R13">
-        <v>2577.25905628112</v>
+        <v>1722.432834395118</v>
       </c>
       <c r="S13">
-        <v>0.004803720397489027</v>
+        <v>0.002056507246189208</v>
       </c>
       <c r="T13">
-        <v>0.004803720397489027</v>
+        <v>0.002056507246189208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.398836333333334</v>
+        <v>3.087329333333333</v>
       </c>
       <c r="N14">
-        <v>7.196509000000001</v>
+        <v>9.261987999999999</v>
       </c>
       <c r="O14">
-        <v>0.09386760623633866</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="P14">
-        <v>0.09386760623633868</v>
+        <v>0.1539049749041678</v>
       </c>
       <c r="Q14">
-        <v>5061.999521083515</v>
+        <v>14015.20561925974</v>
       </c>
       <c r="R14">
-        <v>45557.99568975165</v>
+        <v>126136.8505733377</v>
       </c>
       <c r="S14">
-        <v>0.08491496911426735</v>
+        <v>0.1506017198671498</v>
       </c>
       <c r="T14">
-        <v>0.08491496911426737</v>
+        <v>0.1506017198671498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2223430006085962</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="P15">
-        <v>0.2223430006085963</v>
+        <v>0.2832552948356705</v>
       </c>
       <c r="Q15">
-        <v>11990.29364574629</v>
+        <v>25794.36566191506</v>
       </c>
       <c r="R15">
-        <v>107912.6428117166</v>
+        <v>232149.2909572356</v>
       </c>
       <c r="S15">
-        <v>0.201137003344008</v>
+        <v>0.2771758001344072</v>
       </c>
       <c r="T15">
-        <v>0.2011370033440081</v>
+        <v>0.2771758001344072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.300086333333334</v>
+        <v>4.823431</v>
       </c>
       <c r="N16">
-        <v>15.900259</v>
+        <v>14.470293</v>
       </c>
       <c r="O16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="P16">
-        <v>0.2073948981190463</v>
+        <v>0.2404505470122564</v>
       </c>
       <c r="Q16">
-        <v>11184.18714450352</v>
+        <v>21896.39327603696</v>
       </c>
       <c r="R16">
-        <v>100657.6843005316</v>
+        <v>197067.5394843326</v>
       </c>
       <c r="S16">
-        <v>0.1876145783870835</v>
+        <v>0.2352897685444614</v>
       </c>
       <c r="T16">
-        <v>0.1876145783870835</v>
+        <v>0.2352897685444614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.17451333333333</v>
+        <v>6.467117666666667</v>
       </c>
       <c r="N17">
-        <v>36.52354</v>
+        <v>19.401353</v>
       </c>
       <c r="O17">
-        <v>0.4763944950360187</v>
+        <v>0.3223891832479054</v>
       </c>
       <c r="P17">
-        <v>0.4763944950360188</v>
+        <v>0.3223891832479053</v>
       </c>
       <c r="Q17">
-        <v>25690.53161585355</v>
+        <v>29358.05483518678</v>
       </c>
       <c r="R17">
-        <v>231214.7845426819</v>
+        <v>264222.493516681</v>
       </c>
       <c r="S17">
-        <v>0.4309582981197839</v>
+        <v>0.3154697597912766</v>
       </c>
       <c r="T17">
-        <v>0.4309582981197839</v>
+        <v>0.3154697597912766</v>
       </c>
     </row>
   </sheetData>
